--- a/Document/Bảng-đánh-giá-cá-nhân_PHONG.xlsx
+++ b/Document/Bảng-đánh-giá-cá-nhân_PHONG.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="36">
   <si>
     <t>BẢNG ĐÁNH GIÁ CÁ NHÂN - NHÓM 5</t>
   </si>
@@ -82,12 +82,6 @@
   </si>
   <si>
     <t>Deadlock</t>
-  </si>
-  <si>
-    <t>Mô tả chức năng hệ thống
-Ràng buộc dữ liệu bổ sung
-Liệt kê mô tả ... lỗi tranh chấp (….)
-Tổng hợp báo cáo lần 1</t>
   </si>
   <si>
     <t>Mô tả chức năng hệ thống
@@ -132,14 +126,116 @@
 sp_LayMonHoc</t>
   </si>
   <si>
-    <t>Thêm môn học</t>
+    <t>sp_LayMonHoc
+sp_ThemMonHoc</t>
+  </si>
+  <si>
+    <t>Mô tả chức năng hệ thống
+Ràng buộc dữ liệu bổ sung
+Liệt kê mô tả 04 lỗi tranh chấp (ERR21~ERR24)
+Tổng hợp báo cáo lần 1</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Database: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Tranh chấp
+1. sp_CapNhatMonHoc
+2. sp_ThemMonHoc
+3. sp_LayMonHoc
+4. sp_XoaMonHoc</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Giao diện</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1. Thêm môn học
+2. Tìm kiếm môn học
+3. Cập nhật môn học</t>
+    </r>
+  </si>
+  <si>
+    <t>sp_XoaMonHoc
+sp_CapNhatMonHoc</t>
+  </si>
+  <si>
+    <t>(MONHOC)
+Cập nhật môn học
+Xóa môn học</t>
+  </si>
+  <si>
+    <t>(MONHOC)
+Cập nhật môn học
+Lấy danh sách môn học</t>
+  </si>
+  <si>
+    <t>(MONHOC)
+Lấy danh sách môn học
+Thêm môn học</t>
+  </si>
+  <si>
+    <t>(MONHOC)
+Lấy sanh sách môn học
+Cập nhật môn học</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -180,6 +276,16 @@
     </font>
     <font>
       <sz val="18"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <u/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -379,6 +485,18 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -409,9 +527,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -419,15 +534,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -720,8 +826,8 @@
   </sheetPr>
   <dimension ref="A1:R9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -735,106 +841,106 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="8" customFormat="1" ht="23" x14ac:dyDescent="0.5">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
     </row>
     <row r="2" spans="1:18" s="7" customFormat="1" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="12" t="s">
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="14"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="18"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="21" t="s">
+      <c r="E3" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="21" t="s">
+      <c r="F3" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="25" t="s">
+      <c r="G3" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="25"/>
-      <c r="I3" s="19" t="s">
+      <c r="H3" s="28"/>
+      <c r="I3" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="19"/>
-      <c r="K3" s="20" t="s">
+      <c r="J3" s="23"/>
+      <c r="K3" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="L3" s="20"/>
-      <c r="M3" s="23" t="s">
+      <c r="L3" s="24"/>
+      <c r="M3" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="24"/>
-      <c r="O3" s="27" t="s">
+      <c r="N3" s="27"/>
+      <c r="O3" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="P3" s="28"/>
-      <c r="Q3" s="22" t="s">
+      <c r="P3" s="15"/>
+      <c r="Q3" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="R3" s="22" t="s">
+      <c r="R3" s="12" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A4" s="21"/>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
+      <c r="A4" s="25"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
       <c r="G4" s="6" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>13</v>
@@ -863,59 +969,61 @@
       <c r="P4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Q4" s="22"/>
-      <c r="R4" s="22"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="12"/>
     </row>
-    <row r="5" spans="1:18" ht="200" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" ht="200.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>1</v>
       </c>
       <c r="B5" s="1">
         <v>1642050</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="20" t="s">
         <v>16</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="9"/>
+      <c r="E5" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>30</v>
+      </c>
       <c r="G5" s="9" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="H5" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="L5" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="I5" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="J5" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="K5" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="L5" s="9" t="s">
-        <v>24</v>
-      </c>
       <c r="M5" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N5" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O5" s="9" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="P5" s="9" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="Q5" s="9"/>
       <c r="R5" s="11">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="200" customHeight="1" x14ac:dyDescent="0.3">
@@ -925,9 +1033,9 @@
       <c r="B6" s="1">
         <v>1642067</v>
       </c>
-      <c r="C6" s="17"/>
+      <c r="C6" s="21"/>
       <c r="D6" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E6" s="9"/>
       <c r="F6" s="9"/>
@@ -951,9 +1059,9 @@
       <c r="B7" s="1">
         <v>1642071</v>
       </c>
-      <c r="C7" s="17"/>
+      <c r="C7" s="21"/>
       <c r="D7" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
@@ -977,41 +1085,41 @@
       <c r="B8" s="1">
         <v>1642076</v>
       </c>
-      <c r="C8" s="17"/>
+      <c r="C8" s="21"/>
       <c r="D8" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
       <c r="G8" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="H8" s="9" t="s">
+      <c r="I8" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="J8" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="I8" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="J8" s="9" t="s">
-        <v>26</v>
-      </c>
       <c r="K8" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L8" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M8" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N8" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O8" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P8" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q8" s="9"/>
       <c r="R8" s="11">
@@ -1025,9 +1133,9 @@
       <c r="B9" s="1">
         <v>1642084</v>
       </c>
-      <c r="C9" s="18"/>
+      <c r="C9" s="22"/>
       <c r="D9" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E9" s="9"/>
       <c r="F9" s="9"/>
@@ -1046,9 +1154,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="G2:R2"/>
-    <mergeCell ref="A1:R1"/>
     <mergeCell ref="C5:C9"/>
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="K3:L3"/>
@@ -1058,11 +1163,14 @@
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="F3:F4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="M3:N3"/>
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="Q3:Q4"/>
     <mergeCell ref="A2:F2"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="G2:R2"/>
+    <mergeCell ref="A1:R1"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="M3:N3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="46" orientation="landscape" r:id="rId1"/>
